--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1172.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1172.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.040054895601665</v>
+        <v>1.166168928146362</v>
       </c>
       <c r="B1">
-        <v>2.058476172151147</v>
+        <v>2.435763359069824</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.328748208371883</v>
+        <v>2.368050813674927</v>
       </c>
       <c r="E1">
-        <v>1.179751097476429</v>
+        <v>1.234692692756653</v>
       </c>
     </row>
   </sheetData>
